--- a/Document/1_Req/Q&A.xlsx
+++ b/Document/1_Req/Q&A.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>No</t>
   </si>
@@ -81,21 +81,62 @@
   <si>
     <t>DungHV</t>
   </si>
+  <si>
+    <t>Trong phần tìm kiếm công việc:
+ -Có cho phép tìm kiếm không dấu không?
+ -Nếu user chọn ô " tất cả " thì tìm kiếm theo tất cả các tiêu chí (Tên công việc, Người giao, Người được giao.) hay bắt buộc phải chọn 1 tiêu chí hay mặc định 1 tiêu chí nào đó</t>
+  </si>
+  <si>
+    <t>NgaDV</t>
+  </si>
+  <si>
+    <t>Sắp xếp các công việc trên màn hình như thế nào?
+Có phải là:
+- Sắp xếp theo hạn cuối công việc giảm dần.</t>
+  </si>
+  <si>
+    <t>Màn hình công việc đã giao có cho phép sửa những mục nào?
+Có phải là:
+- Tất cả các mục không&gt;?</t>
+  </si>
+  <si>
+    <t>Nếu trong một danh sách nào đo mà không có việc thì hiển thị cái gì?
+Có phải là:
+- Hiển thị nội dung thông báo là "không có công việc" hay là để trống.</t>
+  </si>
+  <si>
+    <t>Kiểm tra form nhập liệu như thế nào?</t>
+  </si>
+  <si>
+    <t>Trong nhóm công việc đã giao không được phép cập nhật tiến độ có đúng không ?</t>
+  </si>
+  <si>
+    <t>LuanDT</t>
+  </si>
+  <si>
+    <t>Khi bấm vào một cảnh báo thì chỉ cảnh báo công văn mới là mở link trên trình duyệt còn các cảnh báo khác thì mở trên app có đúng không ?</t>
+  </si>
+  <si>
+    <t>Trong mục tìm kiếm công việc chỉ tìm theo 3 tiêu chí là :tên công việc, người giao, người được giao có đúng không ?</t>
+  </si>
+  <si>
+    <t>Ở widget cảnh báo có 3 item ( công văn, công việc, lịch biểu) khi bấm vào 1 item thì hiện màn hình chứa danh sách cảnh báo của riêng item đó đúng không ?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,19 +168,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -180,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,9 +296,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,6 +331,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,24 +507,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.75" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -446,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -454,7 +540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -462,12 +548,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="75">
+    <row r="8" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -507,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75">
+    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -524,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="90">
+    <row r="10" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -541,152 +627,284 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
+    <row r="11" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12">
+        <v>41919</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="12">
+        <v>41919</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="12">
+        <v>41919</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="12">
+        <v>41919</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="12">
+        <v>41919</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="16">
+        <v>41919</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="16">
+        <v>41919</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="16">
+        <v>41919</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="16">
+        <v>41919</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>33</v>
       </c>
@@ -702,24 +920,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/1_Req/Q&A.xlsx
+++ b/Document/1_Req/Q&A.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -126,12 +126,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -264,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,10 +296,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,7 +330,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,53 +505,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.75" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="C2">
+        <f>COUNTIF(G8:G41,G2)</f>
+        <v>12</v>
+      </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>10</v>
       </c>
+      <c r="C3">
+        <f>COUNTIF(G8:G41,G3)</f>
+        <v>0</v>
+      </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="C4">
+        <f>COUNTIF(G8:G41,G4)</f>
+        <v>0</v>
+      </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f>SUM(C2:C4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="75">
       <c r="A8">
         <v>1</v>
       </c>
@@ -593,7 +607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="75">
       <c r="A9">
         <v>2</v>
       </c>
@@ -610,7 +624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="90">
       <c r="A10">
         <v>3</v>
       </c>
@@ -627,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="90">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -646,7 +660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="60">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -665,7 +679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="60">
       <c r="A13" s="4">
         <v>6</v>
       </c>
@@ -684,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="75">
       <c r="A14" s="4">
         <v>7</v>
       </c>
@@ -703,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>8</v>
       </c>
@@ -722,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16">
         <v>9</v>
       </c>
@@ -741,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="60">
       <c r="A17">
         <v>10</v>
       </c>
@@ -760,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="45">
       <c r="A18">
         <v>11</v>
       </c>
@@ -779,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="60">
       <c r="A19">
         <v>12</v>
       </c>
@@ -798,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>13</v>
       </c>
@@ -809,102 +823,102 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>33</v>
       </c>
@@ -920,24 +934,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/1_Req/Q&A.xlsx
+++ b/Document/1_Req/Q&A.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>No</t>
   </si>
@@ -122,16 +122,23 @@
   <si>
     <t>Ở widget cảnh báo có 3 item ( công văn, công việc, lịch biểu) khi bấm vào 1 item thì hiện màn hình chứa danh sách cảnh báo của riêng item đó đúng không ?</t>
   </si>
+  <si>
+    <t>Màn hình widget cho hiển thị cái gì?
+Có phải là hiển thị tất cả các công việc.</t>
+  </si>
+  <si>
+    <t>TuNT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -264,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,9 +303,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,36 +514,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.75" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
         <f>COUNTIF(G8:G41,G2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -546,7 +555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -558,16 +567,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
         <f>SUM(C2:C4)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="75">
+    <row r="8" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -607,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75">
+    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -624,7 +633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="90">
+    <row r="10" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -641,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="90">
+    <row r="11" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -660,7 +669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60">
+    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -679,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60">
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>6</v>
       </c>
@@ -698,7 +707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="75">
+    <row r="14" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>7</v>
       </c>
@@ -717,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>8</v>
       </c>
@@ -736,7 +745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
@@ -755,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60">
+    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10</v>
       </c>
@@ -774,7 +783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45">
+    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>11</v>
       </c>
@@ -793,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60">
+    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>12</v>
       </c>
@@ -812,113 +821,121 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>13</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="16">
+        <v>41919</v>
+      </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>33</v>
       </c>
@@ -934,24 +951,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/1_Req/Q&A.xlsx
+++ b/Document/1_Req/Q&A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -128,6 +128,49 @@
   </si>
   <si>
     <t>TuNT</t>
+  </si>
+  <si>
+    <t>Có phải là số lượng cảnh báo chỉ giảm khi bấm vào 1 Item trong Danh sách công việc/công văn không?</t>
+  </si>
+  <si>
+    <t>ToanNM</t>
+  </si>
+  <si>
+    <t>Sau khi thêm công việc mới thì công việc mới
+đó sẽ  ở trong Mục nào(Tất cả cv,cv được giao,
+công việc đã giao,công việc theo dõi hay cv 
+đã hoàn thành)?</t>
+  </si>
+  <si>
+    <t>Tìm kiếm công việc sẽ tìm theo 1 danh sách có 
+sẵn(autoComplete)hay phải nhập đầy đủ tên
+Công việc hoặc tên người giao/được giao?</t>
+  </si>
+  <si>
+    <t>Trong màn hình lọc công việc theo phòng ban,
+khi có 1 công việc được giao cho 2 hoặc nhiều
+phòng ban thì sẽ hiển thị tên công việc ở cả 2 
+màn hình đúng không?</t>
+  </si>
+  <si>
+    <t>Màn hình Chi tiết CV cho phép sửa chi tiết CV
+vậy User có quyền sửa những thông tin nào về
+CV?</t>
+  </si>
+  <si>
+    <t>Màn hình Thêm CV,phòng ban được tự động
+và không cho người dùng nhập liệu.Vậy khi tạo
+mới 1 CV,mặc định sẽ là phòng ban nào nhận
+CV đó?</t>
+  </si>
+  <si>
+    <t>Trong màn hình Tìm kiếm,khi người dùng chọn
+CV được giao/đã giao và nhập tên CV/người 
+thì sẽ tìm trong CV được giao/đã giao hay tìm theo Tất cả CV hiện có?</t>
+  </si>
+  <si>
+    <t>Danh sách Công văn hiển thị ngắn gọn Công văn 
+Đúng không?</t>
   </si>
 </sst>
 </file>
@@ -138,7 +181,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -517,33 +560,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.75" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
         <f>COUNTIF(G8:G41,G2)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -555,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -567,16 +610,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
         <f>SUM(C2:C4)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -616,7 +659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -633,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -650,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -669,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -688,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>6</v>
       </c>
@@ -707,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>7</v>
       </c>
@@ -726,7 +769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>8</v>
       </c>
@@ -745,7 +788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -764,7 +807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -783,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -802,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -821,7 +864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -840,102 +883,198 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="3">
+        <v>41921</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="3">
+        <v>41921</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="3">
+        <v>41921</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="3">
+        <v>41921</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="3">
+        <v>41921</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="3">
+        <v>41921</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="3">
+        <v>41921</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3">
+        <v>41921</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>33</v>
       </c>
@@ -956,7 +1095,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -968,7 +1107,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/1_Req/Q&A.xlsx
+++ b/Document/1_Req/Q&A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -171,6 +171,9 @@
   <si>
     <t>Danh sách Công văn hiển thị ngắn gọn Công văn 
 Đúng không?</t>
+  </si>
+  <si>
+    <t>Có hạn chế dung lượng của file đính kèm không. Đề xuất dung lượng là 10Mb</t>
   </si>
 </sst>
 </file>
@@ -181,12 +184,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,12 +199,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,41 +215,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,35 +548,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G40"/>
+  <dimension ref="A2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.75" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
         <f>COUNTIF(G8:G41,G2)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -598,7 +588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -610,474 +600,577 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
         <f>SUM(C2:C4)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>41919</v>
       </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>41919</v>
       </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>41919</v>
       </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <v>41919</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>41919</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="8">
         <v>41919</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="8">
         <v>41919</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="8">
         <v>41919</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="2">
         <v>41919</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="2">
         <v>41919</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="2">
         <v>41919</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="2">
         <v>41919</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>13</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="2">
         <v>41919</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>41921</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>41921</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>16</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>41921</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>41921</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>41921</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>19</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>41921</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>41921</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>41921</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="2">
+        <v>41922</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>33</v>
       </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1095,7 +1188,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1107,7 +1200,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/1_Req/Q&A.xlsx
+++ b/Document/1_Req/Q&A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -174,6 +174,14 @@
   </si>
   <si>
     <t>Có hạn chế dung lượng của file đính kèm không. Đề xuất dung lượng là 10Mb</t>
+  </si>
+  <si>
+    <t>Khi người dùng đăng xuất,các cảnh báo trên 
+statusbar và widget sẽ biến mất.
+Đúng không?
+Hay vẫn hiển thị 1 danh sách cảnh báo cũ trước
+đó?Tương tự,Widget sẽ hiển thị Widget không có dữ liệu
+Đúng không?</t>
   </si>
 </sst>
 </file>
@@ -184,7 +192,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -550,33 +558,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.75" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
         <f>COUNTIF(G8:G41,G2)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -588,7 +596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -600,16 +608,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
         <f>SUM(C2:C4)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -632,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -651,7 +659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -670,7 +678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -689,7 +697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -708,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -727,7 +735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -747,7 +755,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -766,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -785,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -804,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -823,7 +831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -842,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -861,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -880,7 +888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -899,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -918,7 +926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -937,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>17</v>
       </c>
@@ -956,7 +964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>18</v>
       </c>
@@ -975,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -994,7 +1002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -1013,7 +1021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -1032,7 +1040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -1051,29 +1059,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>23</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="2">
+        <v>41922</v>
+      </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>24</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>25</v>
       </c>
@@ -1084,7 +1100,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>26</v>
       </c>
@@ -1095,7 +1111,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>27</v>
       </c>
@@ -1106,7 +1122,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>28</v>
       </c>
@@ -1117,7 +1133,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>29</v>
       </c>
@@ -1128,7 +1144,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30</v>
       </c>
@@ -1139,7 +1155,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>31</v>
       </c>
@@ -1150,7 +1166,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>32</v>
       </c>
@@ -1161,7 +1177,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>33</v>
       </c>
@@ -1188,7 +1204,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1200,7 +1216,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/1_Req/Q&A.xlsx
+++ b/Document/1_Req/Q&A.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>No</t>
   </si>
@@ -182,6 +182,65 @@
 Hay vẫn hiển thị 1 danh sách cảnh báo cũ trước
 đó?Tương tự,Widget sẽ hiển thị Widget không có dữ liệu
 Đúng không?</t>
+  </si>
+  <si>
+    <t>Đúng</t>
+  </si>
+  <si>
+    <t>Bạn có 2 thảo luận mới, Nội dung của thảo luận</t>
+  </si>
+  <si>
+    <t>Ô nào có dữ liệu thì tìm kiếm theo ô đó, có cho phép tìm kiếm không dấu, giống như trên Web</t>
+  </si>
+  <si>
+    <t>Công việc được giao mới nhất lên trên trước</t>
+  </si>
+  <si>
+    <t>Tất cả</t>
+  </si>
+  <si>
+    <t>Để trống</t>
+  </si>
+  <si>
+    <t>Giống như trên Web</t>
+  </si>
+  <si>
+    <t>Người giao, người thực hiện  được phép cập nhật tiến độ</t>
+  </si>
+  <si>
+    <t>Cái nào có trong app thì mở app, nhưng chuyển lên trình duyệt là chủ yếu</t>
+  </si>
+  <si>
+    <t>Như anh Đại đã thảo luận với Mạnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Như trên Web: Với người thực hiện nó nằm ở mục công việc được giao, với người giao: Nó nằm ở công việc đã giao, </t>
+  </si>
+  <si>
+    <t>Nhập vào: Vd nhập tên: "QL1A" tìm tất cả các tên có QL1A</t>
+  </si>
+  <si>
+    <t>Đúng: Và mỗi phòng chỉ xử lý 1 công việc như trên Web</t>
+  </si>
+  <si>
+    <t>Phòng ban của người thực hiện</t>
+  </si>
+  <si>
+    <t>Có 2 chế độ chọn trong hệ thống về việc đếm cảnh báo:
+- Chế đội 1: Khi có nhiều cảnh báo mới thì khi mở ra xem nội dung nào thì trừ đi 1 đơn vị đếm cảnh báo của cảnh báo đã xem.
+- Chế độ 2: Chỉ cần mở ra xem 1 trong nhiều cảnh báo trong nhóm là đã reset bộ đếm về từ đầu của nhóm đó.</t>
+  </si>
+  <si>
+    <t>Người giao có quyền sửa hết</t>
+  </si>
+  <si>
+    <t>List trong phạm vi thao tác tìm kiếm</t>
+  </si>
+  <si>
+    <t>Hiển thị trích yếu của công văn</t>
+  </si>
+  <si>
+    <t>Vẫn hiển thị danh sách cũ gần nhất khi đăng xuất</t>
   </si>
 </sst>
 </file>
@@ -223,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -239,9 +298,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -312,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,7 +403,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +703,9 @@
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
@@ -666,7 +724,9 @@
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
@@ -685,7 +745,9 @@
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
@@ -704,15 +766,17 @@
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>41919</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -720,14 +784,16 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>41919</v>
       </c>
       <c r="F12" s="1"/>
@@ -742,11 +808,13 @@
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>41919</v>
       </c>
       <c r="F13" s="1"/>
@@ -762,11 +830,13 @@
       <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>41919</v>
       </c>
       <c r="F14" s="1"/>
@@ -781,11 +851,13 @@
       <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>41919</v>
       </c>
       <c r="F15" s="1"/>
@@ -793,14 +865,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
@@ -819,7 +893,9 @@
       <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
@@ -838,7 +914,9 @@
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
@@ -857,7 +935,9 @@
       <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
@@ -876,7 +956,9 @@
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
@@ -888,14 +970,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
@@ -914,7 +998,9 @@
       <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
@@ -933,7 +1019,9 @@
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
@@ -952,7 +1040,9 @@
       <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>32</v>
       </c>
@@ -971,7 +1061,9 @@
       <c r="B25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>32</v>
       </c>
@@ -990,7 +1082,9 @@
       <c r="B26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1009,7 +1103,9 @@
       <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1028,7 +1124,9 @@
       <c r="B28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1066,7 +1164,9 @@
       <c r="B30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1189,12 +1289,13 @@
       <c r="G40" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G40">
       <formula1>$G$2:$G$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
